--- a/src/price/LDSP_Decors_Lux.xlsx
+++ b/src/price/LDSP_Decors_Lux.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\lamarty_ldsp\src\price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF33341-299D-49F4-8CA7-6450E04C1CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4F264E-26D4-4E28-AEE1-D1EDA70775BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="24810" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,9 +59,6 @@
     <t>малави</t>
   </si>
   <si>
-    <t xml:space="preserve">одиссея </t>
-  </si>
-  <si>
     <t>парма</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>солнечный</t>
   </si>
   <si>
-    <t xml:space="preserve">терра </t>
-  </si>
-  <si>
     <t>элит баттл рок</t>
   </si>
   <si>
@@ -117,6 +111,12 @@
   </si>
   <si>
     <t>A,P</t>
+  </si>
+  <si>
+    <t>одиссея</t>
+  </si>
+  <si>
+    <t>терра</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -515,7 +515,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -526,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -540,10 +540,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -554,10 +554,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -568,10 +568,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -579,27 +579,27 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -607,13 +607,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -621,11 +621,11 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -633,11 +633,11 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -645,11 +645,11 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -657,43 +657,43 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
